--- a/scores/tasks.xlsx
+++ b/scores/tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work_Andrew\CloneChecker\scores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E5A1E6-A777-4515-8A1D-FA8E3DA29815}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B7AED8-0CB5-4241-9A4F-BC2B18BB5B66}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{B0131599-2AEC-0346-9809-1579412C5BE7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="4" xr2:uid="{B0131599-2AEC-0346-9809-1579412C5BE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4839" uniqueCount="1303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4833" uniqueCount="1303">
   <si>
     <t>task</t>
   </si>
@@ -14988,7 +14988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B09505-574D-4980-B5D7-C7021CF4329D}">
   <dimension ref="A1:B328"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -17630,10 +17630,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D784F6-DBA2-4B7C-906A-B61396BB0033}">
-  <dimension ref="A1:B239"/>
+  <dimension ref="A1:B238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -17643,1914 +17643,1906 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>689</v>
+        <v>700</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>688</v>
+        <v>698</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>702</v>
+        <v>713</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>713</v>
+        <v>726</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>712</v>
+        <v>725</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>754</v>
+        <v>763</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>752</v>
+        <v>761</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>770</v>
+        <v>779</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>769</v>
+        <v>777</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>782</v>
+        <v>789</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>799</v>
+        <v>806</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>818</v>
+        <v>825</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>816</v>
+        <v>823</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>841</v>
+        <v>851</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>842</v>
+        <v>849</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>881</v>
+        <v>886</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>884</v>
+        <v>889</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>908</v>
+        <v>913</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>907</v>
+        <v>912</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>913</v>
+        <v>920</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>918</v>
+        <v>925</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>924</v>
+        <v>931</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>925</v>
+        <v>930</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>933</v>
+        <v>948</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>934</v>
+        <v>946</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>946</v>
+        <v>951</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>950</v>
+        <v>957</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>957</v>
+        <v>961</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>961</v>
+        <v>967</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>959</v>
+        <v>968</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>967</v>
+        <v>974</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>968</v>
+        <v>973</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>974</v>
+        <v>979</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>973</v>
+        <v>977</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>977</v>
+        <v>982</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>981</v>
+        <v>989</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>982</v>
+        <v>987</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>989</v>
+        <v>996</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>987</v>
+        <v>994</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>994</v>
+        <v>999</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>1003</v>
+        <v>1010</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>1004</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>1009</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>1016</v>
+        <v>1023</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>1014</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>1021</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>1029</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>1033</v>
+        <v>1041</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>1034</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>1041</v>
+        <v>1045</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>1039</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>1044</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
-        <v>1051</v>
+        <v>1055</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>1049</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>1055</v>
+        <v>1061</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>1054</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
-        <v>1061</v>
+        <v>1065</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>1059</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>1064</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
-        <v>1068</v>
+        <v>1073</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>1069</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>1073</v>
+        <v>1083</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>1074</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
-        <v>1083</v>
+        <v>1088</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1081</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>1088</v>
+        <v>1093</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1086</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>1091</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>1095</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
-        <v>1102</v>
+        <v>1108</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>1100</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>1108</v>
+        <v>1116</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>1107</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
-        <v>1116</v>
+        <v>1121</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>1114</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
-        <v>1121</v>
+        <v>1126</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>1119</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
-        <v>1126</v>
+        <v>1132</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>1124</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
-        <v>1132</v>
+        <v>1136</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>1131</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
-        <v>1136</v>
+        <v>1142</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>1135</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
-        <v>1142</v>
+        <v>1148</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>1140</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
-        <v>1148</v>
+        <v>1158</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>1147</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
-        <v>1158</v>
+        <v>1163</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>1156</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
-        <v>1163</v>
+        <v>1174</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>1161</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
-        <v>1174</v>
+        <v>1179</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>1172</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
-        <v>1179</v>
+        <v>1184</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>1177</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
-        <v>1184</v>
+        <v>1189</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>1182</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
-        <v>1189</v>
+        <v>1196</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>1187</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
-        <v>1196</v>
+        <v>1200</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>1194</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>1199</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
-        <v>1201</v>
+        <v>1208</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>1202</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
-        <v>1208</v>
+        <v>1216</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>1207</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
-        <v>1216</v>
+        <v>1221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>1214</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
-        <v>1221</v>
+        <v>1226</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>1219</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
-        <v>1226</v>
+        <v>1231</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>1224</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
-        <v>1231</v>
+        <v>1235</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>1229</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
-        <v>1235</v>
+        <v>1239</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>1236</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
-        <v>1239</v>
+        <v>1246</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>1240</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
-        <v>1246</v>
+        <v>1251</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>1245</v>
+        <v>944</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
-        <v>1251</v>
+        <v>1257</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>944</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
-        <v>1257</v>
+        <v>1260</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
-        <v>1260</v>
+        <v>1263</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>1259</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
-        <v>1263</v>
+        <v>1269</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>1264</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
-        <v>1269</v>
+        <v>1275</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1267</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
-        <v>1275</v>
+        <v>1279</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>1273</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
-        <v>1279</v>
+        <v>1287</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1280</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
-        <v>1287</v>
+        <v>1292</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>1285</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
-        <v>1292</v>
+        <v>1297</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>1290</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
-        <v>1297</v>
+        <v>1300</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A239" s="1" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B239" s="1" t="s">
         <v>1299</v>
       </c>
     </row>
@@ -19561,1739 +19553,1731 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599FD6C1-7F75-4CAC-A9E6-9EFFD95472A7}">
-  <dimension ref="A1:B216"/>
+  <dimension ref="A1:B215"/>
   <sheetViews>
-    <sheetView topLeftCell="A201" workbookViewId="0">
-      <selection activeCell="A201" sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>712</v>
+        <v>725</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>727</v>
+        <v>741</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>725</v>
+        <v>740</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>760</v>
+        <v>772</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>776</v>
+        <v>785</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>782</v>
+        <v>792</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>810</v>
+        <v>817</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>817</v>
+        <v>824</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>816</v>
+        <v>823</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>824</v>
+        <v>831</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>836</v>
+        <v>845</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>842</v>
+        <v>849</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>850</v>
+        <v>857</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>857</v>
+        <v>863</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>868</v>
+        <v>877</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>883</v>
+        <v>892</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>884</v>
+        <v>889</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>889</v>
+        <v>897</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>898</v>
+        <v>905</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>907</v>
+        <v>912</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>911</v>
+        <v>919</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>919</v>
+        <v>926</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>918</v>
+        <v>925</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>925</v>
+        <v>930</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>932</v>
+        <v>947</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>930</v>
+        <v>946</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>947</v>
+        <v>952</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>946</v>
+        <v>951</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>958</v>
+        <v>970</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>959</v>
+        <v>968</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>968</v>
+        <v>973</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>973</v>
+        <v>977</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>976</v>
+        <v>985</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>977</v>
+        <v>982</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>982</v>
+        <v>987</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>988</v>
+        <v>997</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>987</v>
+        <v>994</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>994</v>
+        <v>999</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>1006</v>
+        <v>1015</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>1004</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>1015</v>
+        <v>1022</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>1014</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>1022</v>
+        <v>1028</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>1021</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>1028</v>
+        <v>1036</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>1029</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>1034</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>1039</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>1043</v>
+        <v>1048</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>1044</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>1048</v>
+        <v>1056</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>1049</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>1054</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>1059</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>1063</v>
+        <v>1072</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>1064</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>1072</v>
+        <v>1077</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>1069</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>1077</v>
+        <v>1082</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>1074</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>1082</v>
+        <v>1087</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1081</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>1087</v>
+        <v>1092</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1086</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>1091</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>1094</v>
+        <v>1101</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>1095</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>1101</v>
+        <v>1110</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>1100</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>1110</v>
+        <v>1115</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>1107</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>1114</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>1118</v>
+        <v>1125</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>1119</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>1125</v>
+        <v>1138</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>1124</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>1135</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>1141</v>
+        <v>1150</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>1140</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>1150</v>
+        <v>1155</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>1147</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
-        <v>1155</v>
+        <v>1162</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>1156</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>1162</v>
+        <v>1171</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>1161</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
-        <v>1171</v>
+        <v>1178</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>1172</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>1178</v>
+        <v>1183</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>1177</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
-        <v>1183</v>
+        <v>1188</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>1182</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>1188</v>
+        <v>1195</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>1187</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
-        <v>1195</v>
+        <v>1205</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1194</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>1205</v>
+        <v>1210</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1202</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
-        <v>1210</v>
+        <v>1215</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>1207</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
-        <v>1215</v>
+        <v>1220</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>1214</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
-        <v>1220</v>
+        <v>1223</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>1219</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>1223</v>
+        <v>1230</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>1224</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
-        <v>1230</v>
+        <v>1237</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>1229</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
-        <v>1237</v>
+        <v>1243</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>1236</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
-        <v>1243</v>
+        <v>1247</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>1240</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
-        <v>1247</v>
+        <v>1254</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>1245</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
-        <v>1254</v>
+        <v>1258</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
-        <v>1258</v>
+        <v>1268</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>1259</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
-        <v>1268</v>
+        <v>1272</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>1267</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
-        <v>1272</v>
+        <v>1283</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>1273</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
-        <v>1283</v>
+        <v>1286</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>1280</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
-        <v>1286</v>
+        <v>1289</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>1285</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
-        <v>1289</v>
+        <v>1294</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A216" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="B216" s="1" t="s">
         <v>1295</v>
       </c>
     </row>
@@ -21304,1499 +21288,1491 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C18A37-4806-4FBE-B429-B991D36F66C1}">
-  <dimension ref="A1:B186"/>
+  <dimension ref="A1:B185"/>
   <sheetViews>
-    <sheetView topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="A161" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>690</v>
+        <v>701</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>688</v>
+        <v>698</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>704</v>
+        <v>714</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>714</v>
+        <v>743</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>712</v>
+        <v>740</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>764</v>
+        <v>771</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>771</v>
+        <v>780</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>769</v>
+        <v>777</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>782</v>
+        <v>792</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>800</v>
+        <v>807</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>819</v>
+        <v>826</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>816</v>
+        <v>823</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>828</v>
+        <v>837</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>843</v>
+        <v>852</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>842</v>
+        <v>849</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>855</v>
+        <v>876</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>854</v>
+        <v>875</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>876</v>
+        <v>887</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>875</v>
+        <v>884</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>884</v>
+        <v>889</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>891</v>
+        <v>900</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>889</v>
+        <v>897</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>909</v>
+        <v>921</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>907</v>
+        <v>918</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>921</v>
+        <v>927</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>918</v>
+        <v>925</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>927</v>
+        <v>949</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>925</v>
+        <v>946</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>949</v>
+        <v>962</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>946</v>
+        <v>959</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>962</v>
+        <v>969</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>959</v>
+        <v>968</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>969</v>
+        <v>980</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>968</v>
+        <v>977</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>977</v>
+        <v>982</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>983</v>
+        <v>990</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>982</v>
+        <v>987</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>987</v>
+        <v>994</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>993</v>
+        <v>1002</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>994</v>
+        <v>999</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>1005</v>
+        <v>1017</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>1004</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>1017</v>
+        <v>1024</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>1014</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>1024</v>
+        <v>1032</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>1021</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>1029</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>1034</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>1042</v>
+        <v>1046</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1039</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>1046</v>
+        <v>1052</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>1044</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>1052</v>
+        <v>1057</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>1049</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>1057</v>
+        <v>1062</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1054</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>1062</v>
+        <v>1066</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1059</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1064</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>1070</v>
+        <v>1075</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>1069</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>1075</v>
+        <v>1084</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>1074</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>1084</v>
+        <v>1089</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>1081</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>1089</v>
+        <v>1097</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>1086</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>1097</v>
+        <v>1103</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>1095</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>1103</v>
+        <v>1109</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>1100</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>1109</v>
+        <v>1117</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1107</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>1117</v>
+        <v>1122</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>1114</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>1122</v>
+        <v>1127</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>1119</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>1127</v>
+        <v>1133</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>1124</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>1133</v>
+        <v>1137</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>1131</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>1137</v>
+        <v>1143</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>1135</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>1143</v>
+        <v>1149</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>1140</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>1149</v>
+        <v>1159</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>1147</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>1159</v>
+        <v>1164</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>1156</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>1164</v>
+        <v>1175</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>1161</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>1175</v>
+        <v>1180</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>1172</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>1180</v>
+        <v>1185</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>1177</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>1185</v>
+        <v>1190</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>1182</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>1190</v>
+        <v>1197</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>1187</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>1197</v>
+        <v>1203</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>1194</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>1203</v>
+        <v>1209</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>1202</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>1209</v>
+        <v>1217</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>1207</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>1217</v>
+        <v>1222</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>1214</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>1222</v>
+        <v>1227</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>1219</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>1227</v>
+        <v>1232</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>1224</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>1232</v>
+        <v>1241</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>1229</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>1241</v>
+        <v>1248</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>1240</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>1248</v>
+        <v>1261</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1245</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>1261</v>
+        <v>1276</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1259</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>1276</v>
+        <v>1281</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>1273</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>1281</v>
+        <v>1288</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>1280</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>1288</v>
+        <v>1293</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186" s="1" t="s">
-        <v>1293</v>
-      </c>
-      <c r="B186" s="1" t="s">
         <v>1290</v>
       </c>
     </row>
